--- a/Arbeit/Theo1/Übung Theo 1.xlsx
+++ b/Arbeit/Theo1/Übung Theo 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonah Nitschke\Desktop\Studium\Arbeit Uni\Theo1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonah Nitschke\Desktop\Studium\Praktikum_TU_D_16-17\Arbeit\Theo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A2:W77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,6 +1467,11 @@
         <v>47</v>
       </c>
     </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>35</v>
+      </c>
+    </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T77" s="3" t="s">
         <v>56</v>
